--- a/Student Files/SC8-Data.xlsx
+++ b/Student Files/SC8-Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gself\Dropbox\GitHub\cll_excel\Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Excel 2016 Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140BB092-2B73-40ED-A370-BF6A8F794440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31800" yWindow="630" windowWidth="18990" windowHeight="14175" xr2:uid="{062336EE-CAD2-49AC-83CA-023B1B5E89A0}"/>
+    <workbookView xWindow="31800" yWindow="630" windowWidth="18990" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="Planner" sheetId="1" r:id="rId1"/>
@@ -52,7 +51,6 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">9</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Planner!$B$14</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
@@ -64,7 +62,7 @@
     <definedName name="solver_rel7" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Planner!$B$11</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Investment</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">integer</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">10</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">integer</definedName>
@@ -155,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -242,13 +240,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -288,7 +286,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{49A05BE5-0DED-458F-9550-9AB25DD9453A}">
+    <tableStyle name="Table Style 1" pivot="0" count="2">
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
     </tableStyle>
@@ -311,14 +309,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5A2EFC62-A378-4213-81C3-1783784AF9B4}" name="Product_Planner" displayName="Product_Planner" ref="A5:E9" totalsRowShown="0">
-  <autoFilter ref="A5:E9" xr:uid="{CBEBEB71-E466-4CB9-B99B-FBC085BAB874}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Product_Planner" displayName="Product_Planner" ref="A5:E9" totalsRowShown="0">
+  <autoFilter ref="A5:E9"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E041F84B-A8E5-45CF-9EB8-2EBDB7742820}" name="Product"/>
-    <tableColumn id="2" xr3:uid="{66FBF1CF-1697-48C7-A75F-776D9D679EE1}" name="Cost" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{CA339E2B-3B5E-438A-9237-F1120E169D9B}" name="Price" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{E1A11EF8-E449-4243-AB34-7E5CFB5E4C03}" name="Profit" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{A86A6682-8E8C-4A1E-A556-14E05E3EC0BC}" name="To Order" dataDxfId="2"/>
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Cost" dataDxfId="3"/>
+    <tableColumn id="5" name="Price" dataDxfId="2"/>
+    <tableColumn id="3" name="Profit" dataDxfId="1"/>
+    <tableColumn id="4" name="To Order" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -620,7 +618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA02ADCC-F8AD-4F83-B27B-D5B7ADB17173}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -636,16 +634,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -670,17 +668,17 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>899</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1049</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f>TV_Price-TV_Cost</f>
         <v>150</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0</v>
       </c>
     </row>
@@ -688,17 +686,17 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>649</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>749</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f>Comp_Price-Comp_Cost</f>
         <v>100</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -706,17 +704,17 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>29</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>49</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>Game_Price-Game_Cost</f>
         <v>20</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -724,17 +722,17 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>449</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>499</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f>Cam_Price-Cam_Cost</f>
         <v>50</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -754,19 +752,19 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <f>(TV_Cost*TV_Order)+(Comp_Cost*Comp_Order)+(Game_Cost*Game_Order)+(Cam_Cost*Cam_Order)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <f>(TV_Profit*TV_Order)+(Comp_Profit*Comp_Order)+(Game_Profit*Game_Order)+(Cam_Profit*Cam_Order)</f>
         <v>0</v>
       </c>
